--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_l'Eure/Liste_des_villes_et_villages_fleuris_de_l'Eure.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_l'Eure/Liste_des_villes_et_villages_fleuris_de_l'Eure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de l’Eure dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de l’Eure, en Normandie.
-En 2022, 103 communes du département figurent au palmarès du concours[1], soit une commune de plus par rapport aux résultats de 2021. De plus, l’Eure est récompensé du label Département Fleuri[2].
+En 2022, 103 communes du département figurent au palmarès du concours, soit une commune de plus par rapport aux résultats de 2021. De plus, l’Eure est récompensé du label Département Fleuri.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,22 +524,173 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 103 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 103 communes sont réparties comme suit :
 4 fleurs : 3 communes. 
 3 fleurs : 19 communes.
 2 fleurs : 37 communes.
-1 fleur : 44 communes.
-Liste des communes
-La liste suivante répertorie les communes de l’Eure labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 44 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de l’Eure labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Évreux
 Lyons-la-Forêt
 Pont-Audemer
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alizay
 Beaumont-le-Roger
 Bernay
@@ -547,7 +710,47 @@
 Val-de-Reuil
 Vernon
 Vironvay
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Authevernes
 Aviron
 Beuzeville
@@ -585,7 +788,47 @@
 Saint-Georges-du-Vièvre
 Serquigny
 Verneuil d'Avre et d'Iton
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bézu-Saint-Éloi
 Bourg-Achard
 Chambord
@@ -634,67 +877,108 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Lyons-la-Forêt (2017)[3],[4]
-Prix nationaux
-Prix de la mise en valeur du patrimoine : Lyons-la-Forêt (2020)[5].
-Prix station verte : Lyons-la-Forêt (2011)[6].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lyons-la-Forêt (2017),</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix de la mise en valeur du patrimoine : Lyons-la-Forêt (2020).
+Prix station verte : Lyons-la-Forêt (2011).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_l'Eure</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_l%27Eure</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Département fleuri</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département de l’Eure est récompensé du label Département Fleuri pour la troisième fois (2011, 2016 et 2021)[7],[8].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de l’Eure est récompensé du label Département Fleuri pour la troisième fois (2011, 2016 et 2021),.
 </t>
         </is>
       </c>
